--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T12:22:43+00:00</t>
+    <t>2025-03-12T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T12:30:26+00:00</t>
+    <t>2025-03-12T15:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Norsk-Pasient</t>
+    <t>Norsk-Navn</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Pasient</t>
+    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Navn</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,13 +42,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Pasient</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Norsk-pasientinformasjon</t>
+    <t>Norsk navn</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:46:35+00:00</t>
+    <t>2025-03-12T15:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>En norsk pasient</t>
+    <t>Norwegian  HumanName. HL7 Norway. The profile adds the concept of middlename and further explains of the use for the data-elements in a Norwegian context.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -253,13 +250,54 @@
     <t>Base</t>
   </si>
   <si>
+    <t>Norsk-Navn.fornavn</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first').</t>
+  </si>
+  <si>
+    <t>Norsk-Navn.mellomnavn</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Defines a middle name as a specific extension as this is widely used in Norwegian names. The middlename is defined in norwegian legislation (lov om personnavn).</t>
+  </si>
+  <si>
+    <t>Norsk-Navn.etternavn</t>
+  </si>
+  <si>
+    <t>Ref. "lov om personnavn" for further details about Norwegian HumanNames.
+The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Norsk-Pasient</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Pasient</t>
+  </si>
+  <si>
+    <t>Pasient</t>
+  </si>
+  <si>
+    <t>Norsk-pasientinformasjon</t>
+  </si>
+  <si>
+    <t>En norsk pasient</t>
+  </si>
+  <si>
     <t>Norsk-Pasient.name</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/no-basis-HumanName
+    <t xml:space="preserve">http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Navn
 </t>
   </si>
   <si>
@@ -270,9 +308,6 @@
   </si>
   <si>
     <t>Norsk-Pasient.kjonn</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -289,41 +324,6 @@
   </si>
   <si>
     <t>HL7 Administrative Gender</t>
-  </si>
-  <si>
-    <t>no-basis-HumanName</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/no-basis-HumanName</t>
-  </si>
-  <si>
-    <t>NoBasisHumanName</t>
-  </si>
-  <si>
-    <t>Basisprofil for Norwegian HumanName. Defined by The Norwegian Directorate of eHealth and HL7 Norway. The profile adds the concept of middlename and further explains of the use for the data-elements in a Norwegian context. The basis profile is open, but derived profiles should close down the information elements according to specification relevant to the use-case.</t>
-  </si>
-  <si>
-    <t>no-basis-HumanName.fornavn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first').</t>
-  </si>
-  <si>
-    <t>no-basis-HumanName.mellomnavn</t>
-  </si>
-  <si>
-    <t>Defines a middle name as a specific extension as this is widely used in Norwegian names. The middlename is defined in norwegian legislation (lov om personnavn).</t>
-  </si>
-  <si>
-    <t>no-basis-HumanName.etternavn</t>
-  </si>
-  <si>
-    <t>Ref. "lov om personnavn" for further details about Norwegian HumanNames.
-The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
   </si>
 </sst>
 </file>
@@ -504,102 +504,102 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>5</v>
@@ -607,26 +607,26 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -666,129 +666,129 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -807,9 +807,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="33.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.66796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="8.95703125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -839,122 +839,122 @@
     <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="33.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="23.66796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>72</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -969,95 +969,95 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="I2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="M2" t="s" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="T2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1065,102 +1065,102 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="M3" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="N3" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="T3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
+      <c r="AI3" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1168,514 +1168,514 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="M4" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="T4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="T5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="I6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="T6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AH6" t="s" s="2">
+      <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="T7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AH7" t="s" s="2">
+      <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI7" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="T8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:49:50+00:00</t>
+    <t>2025-03-12T15:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -294,7 +294,7 @@
     <t>En norsk pasient</t>
   </si>
   <si>
-    <t>Norsk-Pasient.name</t>
+    <t>Norsk-Pasient.navn</t>
   </si>
   <si>
     <t xml:space="preserve">http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Navn

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:55:13+00:00</t>
+    <t>2025-03-13T07:41:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T07:41:16+00:00</t>
+    <t>2025-03-13T07:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T07:44:38+00:00</t>
+    <t>2025-03-17T07:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -324,6 +324,19 @@
   </si>
   <si>
     <t>HL7 Administrative Gender</t>
+  </si>
+  <si>
+    <t>Norsk-Pasient.sivilstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Sivilstatus</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
   </si>
 </sst>
 </file>
@@ -798,7 +811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1678,6 +1691,107 @@
         <v>73</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T07:22:22+00:00</t>
+    <t>2025-03-17T12:25:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,6 +337,45 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+  </si>
+  <si>
+    <t>helsenim-condition</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/helsenim-condition</t>
+  </si>
+  <si>
+    <t>Tester-helsenim-Condition</t>
+  </si>
+  <si>
+    <t>Helse-NIM Tilstand (condition)</t>
+  </si>
+  <si>
+    <t>Den logiske modellen for Helse-NIM for Tilstander</t>
+  </si>
+  <si>
+    <t>helsenim-condition.innholdsstatus</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/ips/STU1.1/ValueSet-absent-or-unknown-problems-uv-ips.html</t>
+  </si>
+  <si>
+    <t>Absent or Unknown Problems - IPS</t>
+  </si>
+  <si>
+    <t>helsenim-condition.kategori</t>
+  </si>
+  <si>
+    <t>https://finnkode.helsedirektoratet.no/adm/collections/7650?q=7650</t>
+  </si>
+  <si>
+    <t>KJ 7650 Typer av kritisk informasjon</t>
+  </si>
+  <si>
+    <t>helsenim-condition.kommentar</t>
+  </si>
+  <si>
+    <t>Nærmere beskrivelse av tilstanden</t>
   </si>
 </sst>
 </file>
@@ -470,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -804,6 +843,168 @@
         <v>36</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -811,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -820,9 +1021,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.66796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="18.5234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="32.484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="8.95703125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -845,14 +1046,14 @@
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="25.91015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="46.63671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="34.24609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="78.48046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="23.66796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="32.484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -1792,6 +1993,418 @@
         <v>73</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="120">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Norsk-Navn</t>
+    <t>NorskNavn</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Navn</t>
+    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/NorskNavn</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T12:25:14+00:00</t>
+    <t>2025-03-17T13:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,7 +250,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Norsk-Navn.fornavn</t>
+    <t>NorskNavn.fornavn</t>
   </si>
   <si>
     <t>Y</t>
@@ -263,7 +263,7 @@
     <t>Given names (not always 'first').</t>
   </si>
   <si>
-    <t>Norsk-Navn.mellomnavn</t>
+    <t>NorskNavn.mellomnavn</t>
   </si>
   <si>
     <t>1</t>
@@ -272,17 +272,17 @@
     <t>Defines a middle name as a specific extension as this is widely used in Norwegian names. The middlename is defined in norwegian legislation (lov om personnavn).</t>
   </si>
   <si>
-    <t>Norsk-Navn.etternavn</t>
+    <t>NorskNavn.etternavn</t>
   </si>
   <si>
     <t>Ref. "lov om personnavn" for further details about Norwegian HumanNames.
 The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
   </si>
   <si>
-    <t>Norsk-Pasient</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Pasient</t>
+    <t>NorskPasient</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/NorskPasient</t>
   </si>
   <si>
     <t>Pasient</t>
@@ -294,10 +294,10 @@
     <t>En norsk pasient</t>
   </si>
   <si>
-    <t>Norsk-Pasient.navn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Navn
+    <t>NorskPasient.navn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/NorskNavn
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
     <t>The names by which the human is or has been known</t>
   </si>
   <si>
-    <t>Norsk-Pasient.kjonn</t>
+    <t>NorskPasient.kjonn</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -326,7 +326,7 @@
     <t>HL7 Administrative Gender</t>
   </si>
   <si>
-    <t>Norsk-Pasient.sivilstatus</t>
+    <t>NorskPasient.sivilstatus</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -348,19 +348,22 @@
     <t>Tester-helsenim-Condition</t>
   </si>
   <si>
-    <t>Helse-NIM Tilstand (condition)</t>
-  </si>
-  <si>
-    <t>Den logiske modellen for Helse-NIM for Tilstander</t>
+    <t>Helse-NIM Tilstand (condition)-TEST</t>
+  </si>
+  <si>
+    <t>En test av Logiske modellen for Helse-NIM for Tilstander</t>
   </si>
   <si>
     <t>helsenim-condition.innholdsstatus</t>
   </si>
   <si>
+    <t>no-problem-info| no-known-problems</t>
+  </si>
+  <si>
+    <t>Absent or Unknown Problems - IPS</t>
+  </si>
+  <si>
     <t>https://hl7.org/fhir/uv/ips/STU1.1/ValueSet-absent-or-unknown-problems-uv-ips.html</t>
-  </si>
-  <si>
-    <t>Absent or Unknown Problems - IPS</t>
   </si>
   <si>
     <t>helsenim-condition.kategori</t>
@@ -1956,7 +1959,7 @@
         <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" t="s" s="2">
@@ -2166,7 +2169,7 @@
         <v>113</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>73</v>
@@ -2204,10 +2207,10 @@
         <v>106</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2233,10 +2236,10 @@
         <v>97</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2266,28 +2269,28 @@
         <v>100</v>
       </c>
       <c r="Z12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA12" t="s" s="2">
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
@@ -2307,10 +2310,10 @@
         <v>106</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2336,10 +2339,10 @@
         <v>80</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2390,7 +2393,7 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:10:41+00:00</t>
+    <t>2025-03-24T14:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,6 +379,157 @@
   </si>
   <si>
     <t>Nærmere beskrivelse av tilstanden</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/helsenim-overfolsomhet</t>
+  </si>
+  <si>
+    <t>HelseNIMOverfolsomhet</t>
+  </si>
+  <si>
+    <t>Helse-NIM Overfølsomhet - test</t>
+  </si>
+  <si>
+    <t>En logisk modell for Helse-NIM for overfølsomhet</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.innholdsstatus</t>
+  </si>
+  <si>
+    <t>Forklaring på eventuell manglende informasjon</t>
+  </si>
+  <si>
+    <t>Absent or Unknown Allergies - IPS</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-allergies-uv-ips</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.kliniskStatus</t>
+  </si>
+  <si>
+    <t>Om overfølsomheten er aktiv</t>
+  </si>
+  <si>
+    <t>Allergy Intolerance Clinical Status Codes</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/ValueSet/allergyintolerance-clinical-status</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.startdato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Tidspunkt da overfølsomheten ble konstatert</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.sluttdato</t>
+  </si>
+  <si>
+    <t>Tidspunkt da overfølsomheten eventuelt sluttet</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.verifikasjonsstatus</t>
+  </si>
+  <si>
+    <t>Om overfølsomheten er bekreftet</t>
+  </si>
+  <si>
+    <t>Allergy Intolerance Verification Status</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/ValueSet/allergyintolerance-verification-status</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.type</t>
+  </si>
+  <si>
+    <t>Underliggende mekanisme som forårsaker reaksjonen</t>
+  </si>
+  <si>
+    <t>Allergy Intolerance Type</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/ValueSet/allergyintolerance-type</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.kategori</t>
+  </si>
+  <si>
+    <t>Kategori av agens</t>
+  </si>
+  <si>
+    <t>Allergy Intolerance Category</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/ValueSet/allergyintolerance-category</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.alvorlighetsgrad</t>
+  </si>
+  <si>
+    <t>Hvor alvorlige konsekvensene av overfølsomheten anses å være</t>
+  </si>
+  <si>
+    <t>Allergy Intolerance Criticality</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/ValueSet/allergyintolerance-criticality</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.agens</t>
+  </si>
+  <si>
+    <t>Hvilke agens som kan knyttes til overfølsomheten</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.kommentar</t>
+  </si>
+  <si>
+    <t>Kommentar eller supplerende opplysninger</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.dokumentasjonsdato</t>
+  </si>
+  <si>
+    <t>Dato for når opplysningen ble dokumentert</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.reaksjon</t>
+  </si>
+  <si>
+    <t>Liste med reaksjoner for den aktuelle overfølsomheten</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.manifestasjon</t>
+  </si>
+  <si>
+    <t>Hvilken reaksjon pasienten har hatt</t>
+  </si>
+  <si>
+    <t>Allergy Intolerance Manifestation</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/ValueSet/allergyintolerance-manifestation</t>
+  </si>
+  <si>
+    <t>helsenim-overfolsomhet.alvorlighetsgradReaksjon</t>
+  </si>
+  <si>
+    <t>Hvor alvorlig reaksjon pasienten har hatt</t>
+  </si>
+  <si>
+    <t>Allergy Intolerance Severity</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/ValueSet/allergyintolerance-severity</t>
   </si>
 </sst>
 </file>
@@ -512,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1008,6 +1159,168 @@
         <v>36</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1015,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1024,9 +1337,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.5234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="32.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="47.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="8.95703125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1049,14 +1362,14 @@
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="38.234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="78.48046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="32.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="47.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -2408,6 +2721,1551 @@
         <v>73</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T14:09:32+00:00</t>
+    <t>2025-04-01T08:20:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-01T08:20:48+00:00</t>
+    <t>2025-04-01T08:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
